--- a/DATA_goal/Junction_Flooding_301.xlsx
+++ b/DATA_goal/Junction_Flooding_301.xlsx
@@ -443,31 +443,31 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -475,7 +475,7 @@
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44982.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.27</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="F2" s="4" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="N2" s="4" t="n">
         <v>0.97</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="J2" s="4" t="n">
+      <c r="O2" s="4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>60.45</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="AE2" s="4" t="n">
         <v>0.37</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="3">
@@ -759,52 +759,52 @@
         <v>44982.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.6</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.2</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.4</v>
+        <v>3.99</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.7</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.99</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.66</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.28</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.75</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.35</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0</v>
@@ -813,49 +813,49 @@
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>2.1</v>
+        <v>20.96</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.41</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.98</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.21</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="AB3" s="4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.24</v>
       </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.19</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44982.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.89</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.35</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.86</v>
+        <v>28.59</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.4</v>
+        <v>23.97</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.67</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.59</v>
+        <v>35.91</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.64</v>
+        <v>16.38</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.51</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.14</v>
+        <v>11.4</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.56</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.14</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.18</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.15</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.09</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.49</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.26</v>
+        <v>152.64</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.93</v>
+        <v>29.27</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.96</v>
+        <v>19.6</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.15</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.84</v>
+        <v>18.38</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.8</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.23</v>
+        <v>32.33</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44982.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.65</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.14</v>
+        <v>21.44</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.8</v>
+        <v>17.98</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.8</v>
+        <v>7.99</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.15</v>
+        <v>31.52</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.31</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.66</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.43</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.39</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.6</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.36</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>11.27</v>
+        <v>112.68</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.21</v>
+        <v>22.13</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.7</v>
+        <v>7.04</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.83</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.54</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.6</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.88</v>
+        <v>28.77</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.14</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_301.xlsx
+++ b/DATA_goal/Junction_Flooding_301.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44982.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.28</v>
+        <v>4.284</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.27</v>
+        <v>5.265</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.41</v>
+        <v>10.407</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.715</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.08</v>
+        <v>5.079</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>10.36</v>
+        <v>10.361</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>6.86</v>
+        <v>6.858</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.66</v>
+        <v>3.662</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.22</v>
+        <v>6.216</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.25</v>
+        <v>7.246</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.31</v>
+        <v>4.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.97</v>
+        <v>0.973</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.63</v>
+        <v>3.629</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.54</v>
+        <v>6.538</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.61</v>
+        <v>2.613</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>0.117</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.053</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>60.45</v>
+        <v>60.452</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>12.19</v>
+        <v>12.195</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>3.56</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.36</v>
+        <v>7.364</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.73</v>
+        <v>6.727</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.83</v>
+        <v>0.825</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.7</v>
+        <v>5.701</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>3.6</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.54</v>
+        <v>5.538</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.243</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.73</v>
+        <v>6.732</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>8.52</v>
+        <v>8.518000000000001</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>2.17</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.2</v>
+        <v>5.204</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44982.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.6</v>
+        <v>1.599</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.2</v>
+        <v>2.198</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.4</v>
+        <v>0.402</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.2</v>
+        <v>4.196</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.99</v>
+        <v>3.989</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.07</v>
+        <v>2.066</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>7.7</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.99</v>
+        <v>2.987</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.66</v>
+        <v>1.662</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.68</v>
+        <v>2.681</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>3.28</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.75</v>
+        <v>1.754</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>0.34</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.35</v>
+        <v>1.349</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.86</v>
+        <v>2.862</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.135</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>20.96</v>
+        <v>20.956</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.41</v>
+        <v>5.411</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.33</v>
+        <v>1.332</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.37</v>
+        <v>3.368</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.98</v>
+        <v>2.981</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.32</v>
+        <v>0.324</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.21</v>
+        <v>4.206</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.5</v>
+        <v>1.505</v>
       </c>
       <c r="AB3" s="4" t="n">
         <v>2.41</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.86</v>
+        <v>0.864</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.9</v>
+        <v>2.898</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.24</v>
+        <v>0.237</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>7.19</v>
+        <v>7.186</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.93</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.17</v>
+        <v>2.172</v>
       </c>
     </row>
     <row r="4">
@@ -866,100 +866,100 @@
         <v>12.89</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.35</v>
+        <v>10.354</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.668</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>28.59</v>
+        <v>28.585</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>23.97</v>
+        <v>23.974</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.67</v>
+        <v>10.672</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>35.91</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.38</v>
+        <v>16.383</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>7.51</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.4</v>
+        <v>11.404</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.56</v>
+        <v>12.556</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.14</v>
+        <v>12.138</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.18</v>
+        <v>3.185</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.15</v>
+        <v>10.148</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.09</v>
+        <v>15.093</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>8.49</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.102</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.31</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>152.64</v>
+        <v>152.641</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>29.27</v>
+        <v>29.274</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.41</v>
+        <v>9.412000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>19.6</v>
+        <v>19.598</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.15</v>
+        <v>11.146</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.42</v>
+        <v>1.418</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>18.38</v>
+        <v>18.381</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.57</v>
+        <v>8.569000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>8.218999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.4</v>
+        <v>8.395</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.8</v>
+        <v>12.802</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>32.33</v>
+        <v>32.335</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.52</v>
+        <v>5.515</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.15</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>9.109999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44982.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.07</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.91</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_301.xlsx
+++ b/DATA_goal/Junction_Flooding_301.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44982.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.65</v>
+        <v>9.654</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>7.76</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.502</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>21.44</v>
+        <v>21.442</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>17.98</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.99</v>
+        <v>7.991</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>31.52</v>
+        <v>31.521</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.31</v>
+        <v>12.306</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>5.66</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>8.548</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.43</v>
+        <v>9.427</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.114000000000001</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.39</v>
+        <v>2.388</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.6</v>
+        <v>7.601</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.36</v>
+        <v>11.357</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.39</v>
+        <v>6.394</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.077</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.214</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>112.68</v>
+        <v>112.679</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>22.13</v>
+        <v>22.132</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.04</v>
+        <v>7.041</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.83</v>
+        <v>14.829</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>8.371</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.06</v>
+        <v>1.058</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>15.54</v>
       </c>
       <c r="AA5" s="4" t="n">
+        <v>6.429</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>6.159</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>6.301</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>9.599</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>28.768</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>4.141</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>9.111000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44982.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>44.07</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="W6" s="4" t="n">
         <v>6.43</v>
       </c>
-      <c r="AB5" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>28.77</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>9.109999999999999</v>
+      <c r="X6" s="4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.91</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_301.xlsx
+++ b/DATA_goal/Junction_Flooding_301.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44982.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.654</v>
+        <v>9.65</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>7.76</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.502</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>21.442</v>
+        <v>21.44</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>17.98</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.991</v>
+        <v>7.99</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>31.521</v>
+        <v>31.52</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.306</v>
+        <v>12.31</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>5.66</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.548</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.427</v>
+        <v>9.43</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.114000000000001</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.388</v>
+        <v>2.39</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.601</v>
+        <v>7.6</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.357</v>
+        <v>11.36</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.394</v>
+        <v>6.39</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.077</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.214</v>
+        <v>0.21</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>112.679</v>
+        <v>112.68</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>22.132</v>
+        <v>22.13</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.041</v>
+        <v>7.04</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.829</v>
+        <v>14.83</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.371</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.058</v>
+        <v>1.06</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>15.54</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.429</v>
+        <v>6.43</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.159</v>
+        <v>6.16</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.301</v>
+        <v>6.3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.599</v>
+        <v>9.6</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.138</v>
+        <v>0.14</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>28.768</v>
+        <v>28.77</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.141</v>
+        <v>4.14</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.111000000000001</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44982.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.07</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.91</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
   </sheetData>
